--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FuturesTransactionPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/FuturesTransactionPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0517199E-A445-4338-960A-D608EB5518C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E82554E-09F2-4305-80E6-5F19143B125F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18075" windowHeight="12270" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FuturesCurve" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,15 @@
     <definedName name="Metrics">FuturesTransactions!$M$2:$M$5</definedName>
     <definedName name="ReportSet">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1899,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1928,7 +1936,7 @@
       <c r="C2" s="87"/>
       <c r="F2" s="86" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(F3:G14, $B$17:$D$24)</f>
-        <v>Market.QR_EOD.2018-04-26.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_EOD.2019-06-27.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="G2" s="87"/>
       <c r="I2" s="86" t="str">
@@ -1963,21 +1971,21 @@
       </c>
       <c r="C4" s="23">
         <f ca="1">C5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="23">
         <f ca="1">G7</f>
-        <v>43216</v>
+        <v>43643</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="23">
         <f ca="1">J5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="13.5" thickBot="1">
@@ -1986,21 +1994,21 @@
       </c>
       <c r="C5" s="24">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="24">
         <f ca="1">G4</f>
-        <v>43216</v>
+        <v>43643</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="24">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="M5" s="64" t="s">
         <v>74</v>
@@ -2059,7 +2067,7 @@
       </c>
       <c r="G7" s="55">
         <f ca="1">$C$5-1</f>
-        <v>43216</v>
+        <v>43643</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>70</v>
@@ -2298,7 +2306,7 @@
       <c r="D15" s="11"/>
       <c r="F15" s="88" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(F16:G27, $B$26:$D$33)</f>
-        <v>Market.QR_EOD.2018-04-25.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_EOD.2019-06-26.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="G15" s="89"/>
       <c r="M15" s="70" t="s">
@@ -2358,7 +2366,7 @@
       </c>
       <c r="G17" s="23">
         <f ca="1">G20</f>
-        <v>43215</v>
+        <v>43642</v>
       </c>
       <c r="M17" s="70" t="s">
         <v>90</v>
@@ -2388,7 +2396,7 @@
       </c>
       <c r="G18" s="24">
         <f ca="1">G17</f>
-        <v>43215</v>
+        <v>43642</v>
       </c>
       <c r="M18" s="70" t="s">
         <v>91</v>
@@ -2448,7 +2456,7 @@
       </c>
       <c r="G20" s="55">
         <f ca="1">$G$7-1</f>
-        <v>43215</v>
+        <v>43642</v>
       </c>
       <c r="M20" s="70" t="s">
         <v>93</v>
@@ -2510,7 +2518,7 @@
       </c>
       <c r="I22" t="str">
         <f ca="1">G6&amp;"."&amp;TEXT(G7,"YYYY-MM-DD")</f>
-        <v>QR_EOD.2018-04-26</v>
+        <v>QR_EOD.2019-06-27</v>
       </c>
       <c r="K22" s="79">
         <f>100-100*C17</f>
@@ -2548,7 +2556,7 @@
       </c>
       <c r="I23" t="str">
         <f ca="1">G19&amp;"."&amp;TEXT(G20,"YYYY-MM-DD")</f>
-        <v>QR_EOD.2018-04-25</v>
+        <v>QR_EOD.2019-06-26</v>
       </c>
       <c r="M23" s="75" t="s">
         <v>54</v>
@@ -2581,7 +2589,7 @@
       </c>
       <c r="I24" t="str">
         <f ca="1">G32&amp;"."&amp;TEXT(G33,"YYYY-MM-DD")</f>
-        <v>QR_EOD.2018-04-24</v>
+        <v>QR_EOD.2019-06-25</v>
       </c>
       <c r="K24" s="79">
         <f>100-100*C18</f>
@@ -2610,7 +2618,7 @@
       </c>
       <c r="I25" t="str">
         <f ca="1">G45&amp;"."&amp;TEXT(G46,"YYYY-MM-DD")</f>
-        <v>QR_EOD.2018-04-23</v>
+        <v>QR_EOD.2019-06-24</v>
       </c>
       <c r="M25" s="75" t="s">
         <v>55</v>
@@ -2646,7 +2654,7 @@
       </c>
       <c r="I26" t="str">
         <f ca="1">G58&amp;"."&amp;TEXT(G59,"YYYY-MM-DD")</f>
-        <v>QR_EOD.2018-04-22</v>
+        <v>QR_EOD.2019-06-23</v>
       </c>
       <c r="K26" s="79">
         <f>100-100*C19</f>
@@ -2713,7 +2721,7 @@
       </c>
       <c r="F28" s="88" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(F29:G40, $B$35:$D$42)</f>
-        <v>Market.QR_EOD.2018-04-24.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_EOD.2019-06-25.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="G28" s="89"/>
       <c r="K28" s="79">
@@ -2784,7 +2792,7 @@
       </c>
       <c r="G30" s="23">
         <f ca="1">G33</f>
-        <v>43214</v>
+        <v>43641</v>
       </c>
       <c r="K30" s="79">
         <f>100-100*C21</f>
@@ -2822,7 +2830,7 @@
       </c>
       <c r="G31" s="24">
         <f ca="1">G30</f>
-        <v>43214</v>
+        <v>43641</v>
       </c>
       <c r="M31" s="75" t="s">
         <v>58</v>
@@ -2893,7 +2901,7 @@
       </c>
       <c r="G33" s="55">
         <f ca="1">$G$7-2</f>
-        <v>43214</v>
+        <v>43641</v>
       </c>
       <c r="M33" s="75" t="s">
         <v>59</v>
@@ -3109,7 +3117,7 @@
       </c>
       <c r="F41" s="88" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(F42:G53, $B$44:$D$51)</f>
-        <v>Market.QR_EOD.2018-04-23.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_EOD.2019-06-24.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="G41" s="89"/>
     </row>
@@ -3139,7 +3147,7 @@
       </c>
       <c r="G43" s="23">
         <f ca="1">G46</f>
-        <v>43213</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="44" spans="2:16">
@@ -3160,7 +3168,7 @@
       </c>
       <c r="G44" s="24">
         <f ca="1">G43</f>
-        <v>43213</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -3202,7 +3210,7 @@
       </c>
       <c r="G46" s="55">
         <f ca="1">$G$7-3</f>
-        <v>43213</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="47" spans="2:16">
@@ -3348,7 +3356,7 @@
       </c>
       <c r="F54" s="88" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateCurve(F55:G66, $B$53:$D$60)</f>
-        <v>Market.QR_EOD.2018-04-22.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_EOD.2019-06-23.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="G54" s="89"/>
     </row>
@@ -3390,7 +3398,7 @@
       </c>
       <c r="G56" s="23">
         <f ca="1">G59</f>
-        <v>43212</v>
+        <v>43639</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -3411,7 +3419,7 @@
       </c>
       <c r="G57" s="24">
         <f ca="1">G56</f>
-        <v>43212</v>
+        <v>43639</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -3453,7 +3461,7 @@
       </c>
       <c r="G59" s="55">
         <f ca="1">$G$7-4</f>
-        <v>43212</v>
+        <v>43639</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="13.5" thickBot="1">
@@ -3608,7 +3616,7 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
@@ -3623,7 +3631,7 @@
       </c>
       <c r="C6" s="2">
         <f ca="1">C5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>100</v>
@@ -3814,7 +3822,7 @@
       </c>
       <c r="C20" s="2">
         <f ca="1"/>
-        <v>43259</v>
+        <v>43721</v>
       </c>
       <c r="E20" t="str">
         <f ca="1"/>
@@ -3846,7 +3854,7 @@
     <row r="22" spans="2:7">
       <c r="B22" t="str">
         <f ca="1"/>
-        <v>paryt1</v>
+        <v>party1</v>
       </c>
       <c r="C22" t="str">
         <f ca="1"/>
@@ -3941,7 +3949,7 @@
       <c r="E29" s="1"/>
       <c r="G29" t="str">
         <f ca="1">FuturesCurve!I22</f>
-        <v>QR_EOD.2018-04-26</v>
+        <v>QR_EOD.2019-06-27</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -3956,7 +3964,7 @@
       <c r="E30" s="1"/>
       <c r="G30" t="str">
         <f ca="1">FuturesCurve!I23</f>
-        <v>QR_EOD.2018-04-25</v>
+        <v>QR_EOD.2019-06-26</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -3971,7 +3979,7 @@
       <c r="E31" s="1"/>
       <c r="G31" t="str">
         <f ca="1">FuturesCurve!I24</f>
-        <v>QR_EOD.2018-04-24</v>
+        <v>QR_EOD.2019-06-25</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -3986,7 +3994,7 @@
       <c r="E32" s="1"/>
       <c r="G32" t="str">
         <f ca="1">FuturesCurve!I25</f>
-        <v>QR_EOD.2018-04-23</v>
+        <v>QR_EOD.2019-06-24</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -4001,7 +4009,7 @@
       <c r="E33" s="1"/>
       <c r="G33" t="str">
         <f ca="1">FuturesCurve!I26</f>
-        <v>QR_EOD.2018-04-22</v>
+        <v>QR_EOD.2019-06-23</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -4047,7 +4055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -4114,7 +4122,7 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>39</v>
@@ -4129,7 +4137,7 @@
       </c>
       <c r="C6" s="2">
         <f ca="1">C5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>44</v>
@@ -4335,7 +4343,7 @@
       </c>
       <c r="C21" s="2">
         <f ca="1"/>
-        <v>43259</v>
+        <v>43721</v>
       </c>
       <c r="E21" s="51" t="e">
         <v>#N/A</v>
@@ -4363,7 +4371,7 @@
     <row r="23" spans="2:8">
       <c r="B23" t="str">
         <f ca="1"/>
-        <v>paryt1</v>
+        <v>party1</v>
       </c>
       <c r="C23" t="str">
         <f ca="1"/>
@@ -4445,7 +4453,7 @@
       </c>
       <c r="H29" s="1" t="str">
         <f t="array" aca="1" ref="H29:H33" ca="1">Markets</f>
-        <v>QR_EOD.2018-04-26</v>
+        <v>QR_EOD.2019-06-27</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -4459,7 +4467,7 @@
       </c>
       <c r="H30" t="str">
         <f ca="1"/>
-        <v>QR_EOD.2018-04-25</v>
+        <v>QR_EOD.2019-06-26</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -4473,7 +4481,7 @@
       </c>
       <c r="H31" t="str">
         <f ca="1"/>
-        <v>QR_EOD.2018-04-24</v>
+        <v>QR_EOD.2019-06-25</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -4494,7 +4502,7 @@
       </c>
       <c r="H32" t="str">
         <f ca="1"/>
-        <v>QR_EOD.2018-04-23</v>
+        <v>QR_EOD.2019-06-24</v>
       </c>
     </row>
     <row r="33" spans="2:8">
@@ -4507,14 +4515,14 @@
         <v>#N/A</v>
       </c>
       <c r="E33" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-21</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-22</v>
       </c>
       <c r="F33" s="63">
         <v>0</v>
       </c>
       <c r="H33" t="str">
         <f ca="1"/>
-        <v>QR_EOD.2018-04-22</v>
+        <v>QR_EOD.2019-06-23</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -4527,10 +4535,10 @@
         <v>#N/A</v>
       </c>
       <c r="E34" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-20</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-02-19</v>
       </c>
       <c r="F34" s="63">
-        <v>0</v>
+        <v>111644767.66734304</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -4543,10 +4551,10 @@
         <v>#N/A</v>
       </c>
       <c r="E35" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-19</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-02-20</v>
       </c>
       <c r="F35" s="63">
-        <v>0</v>
+        <v>111709224.27935375</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -4559,10 +4567,10 @@
         <v>#N/A</v>
       </c>
       <c r="E36" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-23</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-02-21</v>
       </c>
       <c r="F36" s="63">
-        <v>0</v>
+        <v>111868041.82686561</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -4575,7 +4583,7 @@
         <v>#N/A</v>
       </c>
       <c r="E37" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-22</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-21</v>
       </c>
       <c r="F37" s="63">
         <v>0</v>
@@ -4583,7 +4591,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="E38" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-21</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-20</v>
       </c>
       <c r="F38" s="63">
         <v>0</v>
@@ -4591,7 +4599,7 @@
     </row>
     <row r="39" spans="2:8">
       <c r="E39" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-20</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-19</v>
       </c>
       <c r="F39" s="63">
         <v>0</v>
@@ -4599,7 +4607,7 @@
     </row>
     <row r="40" spans="2:8">
       <c r="E40" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-19</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-23</v>
       </c>
       <c r="F40" s="63">
         <v>0</v>
@@ -4607,7 +4615,7 @@
     </row>
     <row r="41" spans="2:8">
       <c r="E41" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_001.QR_LIVE.2018-02-22</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-22</v>
       </c>
       <c r="F41" s="63">
         <v>0</v>
@@ -4615,26 +4623,26 @@
     </row>
     <row r="42" spans="2:8">
       <c r="E42" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-02-19</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-21</v>
       </c>
       <c r="F42" s="63">
-        <v>111644767.66734304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="E43" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-02-20</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-20</v>
       </c>
       <c r="F43" s="63">
-        <v>111709224.27935375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="E44" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-02-21</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.futureTransaction.testtrade_002.QR_LIVE.2018-02-19</v>
       </c>
       <c r="F44" s="63">
-        <v>111868041.82686561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -4655,42 +4663,42 @@
     </row>
     <row r="47" spans="2:8">
       <c r="E47" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-04-25</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2019-06-25</v>
       </c>
       <c r="F47" s="63">
-        <v>109881089.69656757</v>
+        <v>105500906.39820515</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="E48" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-04-24</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2019-06-24</v>
       </c>
       <c r="F48" s="63">
-        <v>107670344.82123162</v>
+        <v>105645265.83642918</v>
       </c>
     </row>
     <row r="49" spans="5:6">
       <c r="E49" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-04-23</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2019-06-23</v>
       </c>
       <c r="F49" s="63">
-        <v>107483294.70281488</v>
+        <v>105573014.83195874</v>
       </c>
     </row>
     <row r="50" spans="5:6">
       <c r="E50" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-04-22</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2019-06-22</v>
       </c>
       <c r="F50" s="63">
-        <v>109874739.70564295</v>
+        <v>99810281.767546713</v>
       </c>
     </row>
     <row r="51" spans="5:6">
       <c r="E51" t="str">
-        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2018-04-21</v>
+        <v>ValuationReport.Var_Run_20170531.SpreadSheet.bondTransaction.testtrade_002.QR_LIVE.2019-06-21</v>
       </c>
       <c r="F51" s="63">
-        <v>107182060.8829475</v>
+        <v>94993537.719478756</v>
       </c>
     </row>
     <row r="52" spans="5:6">
@@ -4801,7 +4809,7 @@
       </c>
       <c r="K3" s="40">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>13</v>
@@ -4901,11 +4909,11 @@
       </c>
       <c r="F7" s="2">
         <f ca="1">TODAY()-20</f>
-        <v>43197</v>
+        <v>43624</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">F7+3</f>
-        <v>43200</v>
+        <v>43627</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>51</v>
@@ -4980,11 +4988,11 @@
       </c>
       <c r="F9" s="2">
         <f ca="1">F7+2</f>
-        <v>43199</v>
+        <v>43626</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">F9+3</f>
-        <v>43202</v>
+        <v>43629</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>51</v>
@@ -5032,11 +5040,11 @@
       </c>
       <c r="F11" s="2">
         <f ca="1">F9+2</f>
-        <v>43201</v>
+        <v>43628</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">F11+3</f>
-        <v>43204</v>
+        <v>43631</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>51</v>
@@ -5086,11 +5094,11 @@
       </c>
       <c r="F13" s="2">
         <f ca="1">F11+2</f>
-        <v>43203</v>
+        <v>43630</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">F13+3</f>
-        <v>43206</v>
+        <v>43633</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>51</v>
@@ -5141,11 +5149,11 @@
       </c>
       <c r="F15" s="2">
         <f ca="1">F13+2</f>
-        <v>43205</v>
+        <v>43632</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">F15+3</f>
-        <v>43208</v>
+        <v>43635</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>51</v>
@@ -5195,11 +5203,11 @@
       </c>
       <c r="F17" s="2">
         <f ca="1">F15+2</f>
-        <v>43207</v>
+        <v>43634</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">F17+3</f>
-        <v>43210</v>
+        <v>43637</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>51</v>
@@ -5246,11 +5254,11 @@
       </c>
       <c r="F19" s="2">
         <f ca="1">F17+2</f>
-        <v>43209</v>
+        <v>43636</v>
       </c>
       <c r="G19" s="2">
         <f ca="1">F19+3</f>
-        <v>43212</v>
+        <v>43639</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>51</v>
@@ -5300,11 +5308,11 @@
       </c>
       <c r="F21" s="2">
         <f ca="1">F19+2</f>
-        <v>43211</v>
+        <v>43638</v>
       </c>
       <c r="G21" s="2">
         <f ca="1">F21+3</f>
-        <v>43214</v>
+        <v>43641</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>51</v>
@@ -5353,11 +5361,11 @@
       </c>
       <c r="F23" s="2">
         <f ca="1">F21+2</f>
-        <v>43213</v>
+        <v>43640</v>
       </c>
       <c r="G23" s="2">
         <f ca="1">F23+3</f>
-        <v>43216</v>
+        <v>43643</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>51</v>
@@ -5407,11 +5415,11 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" ref="F25" ca="1" si="0">F23+2</f>
-        <v>43215</v>
+        <v>43642</v>
       </c>
       <c r="G25" s="2">
         <f ca="1">F25+3</f>
-        <v>43218</v>
+        <v>43645</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>51</v>
